--- a/Bill of Materials masterlist/Internal/Tray 5/Tray 5 BOM.xlsx
+++ b/Bill of Materials masterlist/Internal/Tray 5/Tray 5 BOM.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bluesat\Desktop\SVN\Bill of Materials masterlist\Internal\Tray 5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="11055"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
   <si>
     <t>Description</t>
   </si>
@@ -191,13 +196,16 @@
   </si>
   <si>
     <t>Receptacle Assembly, 9 Position, Upright</t>
+  </si>
+  <si>
+    <t>Tray 5 Interconnect PCB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +274,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -312,7 +328,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,9 +360,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,6 +395,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -553,14 +571,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" customWidth="1"/>
     <col min="2" max="5" width="11.7109375" customWidth="1"/>
@@ -569,7 +587,7 @@
     <col min="8" max="8" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,59 +613,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -664,18 +661,18 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
@@ -690,44 +687,44 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -742,70 +739,70 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -820,21 +817,21 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -846,16 +843,16 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -872,18 +869,18 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
@@ -898,44 +895,44 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2" t="s">
+      <c r="H14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -950,38 +947,64 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2" t="s">
+      <c r="H16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B17" s="3">
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>9</v>
       </c>
     </row>
